--- a/R_files/Indicator Taxa/output.xlsx
+++ b/R_files/Indicator Taxa/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MICB-475\R_files\Indicator Taxa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MICB-475\R_files\Indicator Taxa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7CA51-20C9-45CF-812A-C6DCD44B27E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1915A89C-03D3-4C68-AD3A-7D57EB9F1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1310" yWindow="0" windowWidth="18420" windowHeight="10030" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group1 w_o treatments" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Group 6 w_treatments" sheetId="3" r:id="rId3"/>
     <sheet name="Group 6 W_treatments all" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1076,18 +1089,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" activeCellId="1" sqref="A1 M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.19706585563285861</v>
       </c>
@@ -1115,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.4649926369958855</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.19706585563285861</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.26007547425832878</v>
       </c>
@@ -1157,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.2203263246196159</v>
       </c>
@@ -1171,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.23062326790190391</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.2203263246196159</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.26888454419052021</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.29495289260893798</v>
       </c>
@@ -1227,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.32415273326437388</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.2203263246196159</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.28163597145170932</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.27120732952093102</v>
       </c>
@@ -1280,7 +1293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.53545020529941578</v>
       </c>
@@ -1294,7 +1307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.21152822575574029</v>
       </c>
@@ -1317,17 +1330,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.27804885163490062</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.29960047880952589</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.37043475953003252</v>
       </c>
@@ -1383,7 +1398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.21908902300206651</v>
       </c>
@@ -1397,7 +1412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.21908902300206651</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.27934157811405957</v>
       </c>
@@ -1425,7 +1440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.2287062216277338</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.21908902300206651</v>
       </c>
@@ -1453,7 +1468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.30465437401891837</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.43030338300412108</v>
       </c>
@@ -1481,7 +1496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.27947140355113897</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.35832350397123308</v>
       </c>
@@ -1509,7 +1524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.41767071317717952</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.21908902300206651</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.28342936463974872</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.48764425476754703</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.30039359387176201</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.32453968954367463</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.4385480135391045</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.44275143845196863</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.32757066210665281</v>
       </c>
@@ -1629,7 +1644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.2236976107889582</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2106236301286501</v>
       </c>
@@ -1657,7 +1672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.26240634526460421</v>
       </c>
@@ -1679,13 +1694,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.42697724501498718</v>
       </c>
@@ -1713,7 +1728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.40824829046386302</v>
       </c>
@@ -1727,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.37819984395383238</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.3616926311013095</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.41700700138770358</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.40824829046386302</v>
       </c>
@@ -1780,7 +1795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.35913164572928341</v>
       </c>
@@ -1794,7 +1809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.40824829046386302</v>
       </c>
@@ -1808,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.37233099617821408</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.4099721892583113</v>
       </c>
@@ -1836,7 +1851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.38257676694801562</v>
       </c>
@@ -1850,7 +1865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.43227530564181987</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.46615232958331548</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.40824829046386302</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.51338407044756118</v>
       </c>
@@ -1906,7 +1921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.35972153941809643</v>
       </c>
@@ -1920,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.40824829046386302</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.40554436138546601</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.40824829046386302</v>
       </c>
@@ -1959,7 +1974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.39235597195562077</v>
       </c>
@@ -1973,7 +1988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.39308453485879408</v>
       </c>
@@ -1987,7 +2002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.40824829046386302</v>
       </c>
@@ -2001,7 +2016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.40824829046386302</v>
       </c>
@@ -2015,7 +2030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.38784169360970688</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.40824829046386302</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.40824829046386302</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.40824829046386302</v>
       </c>
@@ -2068,7 +2083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.52761827388546245</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.40824829046386302</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.44829058878793782</v>
       </c>
@@ -2107,7 +2122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.40824829046386302</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.40824829046386302</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.40824829046386302</v>
       </c>
@@ -2146,7 +2161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.40824829046386302</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.36902888595384142</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.40824829046386302</v>
       </c>
@@ -2188,7 +2203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.40305174949277178</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.40824829046386302</v>
       </c>
@@ -2216,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.40824829046386302</v>
       </c>
@@ -2230,7 +2245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.40824829046386302</v>
       </c>
@@ -2244,7 +2259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.48148894558947369</v>
       </c>
@@ -2255,7 +2270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.40824829046386302</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.40824829046386302</v>
       </c>
@@ -2283,7 +2298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.56992751526018703</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.40824829046386302</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.40824829046386302</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.40824829046386302</v>
       </c>
@@ -2336,7 +2351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.62715203758682658</v>
       </c>
@@ -2350,7 +2365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.45081579927761128</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.40824829046386302</v>
       </c>
@@ -2378,7 +2393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.40529858243156691</v>
       </c>
@@ -2389,7 +2404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.40418019663035443</v>
       </c>
@@ -2403,7 +2418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.40824829046386302</v>
       </c>
@@ -2417,7 +2432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.40824829046386302</v>
       </c>
@@ -2431,7 +2446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.40824829046386302</v>
       </c>
@@ -2445,7 +2460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.40824829046386302</v>
       </c>
@@ -2459,7 +2474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.40824829046386302</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.40824829046386302</v>
       </c>
@@ -2484,7 +2499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.40824829046386302</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.40824829046386302</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.36032343891561402</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.49120203705072002</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.40824829046386302</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.34116643609354819</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.38502480312481308</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.55762845863257327</v>
       </c>
@@ -2584,7 +2599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.40824829046386302</v>
       </c>
@@ -2607,19 +2622,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2724,7 +2739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2759,7 +2774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2794,7 +2809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2829,7 +2844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2899,7 +2914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2934,7 +2949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -2969,7 +2984,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3004,7 +3019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -3144,7 +3159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -3211,7 +3226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -3246,7 +3261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -3281,7 +3296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -3316,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3386,7 +3401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3418,7 +3433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3453,7 +3468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -3488,7 +3503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -3523,7 +3538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -3558,7 +3573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -3593,7 +3608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3628,7 +3643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -3663,7 +3678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -3698,7 +3713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3733,7 +3748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -3768,7 +3783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -3803,7 +3818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3838,7 +3853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3873,7 +3888,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -3905,7 +3920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -4010,7 +4025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>132</v>
       </c>
@@ -4045,7 +4060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>133</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -4115,7 +4130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -4150,7 +4165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -4255,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -4360,7 +4375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -4395,7 +4410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -4430,7 +4445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -4465,7 +4480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -4500,7 +4515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -4535,7 +4550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>147</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -4605,7 +4620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -4637,7 +4652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>150</v>
       </c>
@@ -4672,7 +4687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -4777,7 +4792,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -4812,7 +4827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -4847,7 +4862,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>157</v>
       </c>
@@ -4882,7 +4897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -4949,7 +4964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>163</v>
       </c>
@@ -5089,7 +5104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>164</v>
       </c>
@@ -5121,7 +5136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -5156,7 +5171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -5188,7 +5203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -5223,7 +5238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>169</v>
       </c>
@@ -5293,7 +5308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -5328,7 +5343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -5363,7 +5378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -5398,7 +5413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -5433,7 +5448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -5468,7 +5483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -5503,7 +5518,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -5538,7 +5553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -5573,7 +5588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -5605,7 +5620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -5637,7 +5652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -5672,7 +5687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -5707,7 +5722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -5742,7 +5757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -5777,7 +5792,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -5812,7 +5827,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -5847,7 +5862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -5882,7 +5897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -5917,7 +5932,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -5952,7 +5967,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -5984,7 +5999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6019,7 +6034,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -6089,7 +6104,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -6159,7 +6174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -6194,7 +6209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -6226,7 +6241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -6261,7 +6276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>205</v>
       </c>
@@ -6296,7 +6311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -6331,7 +6346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -6366,7 +6381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>208</v>
       </c>
@@ -6401,7 +6416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>209</v>
       </c>
@@ -6436,7 +6451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>210</v>
       </c>
@@ -6468,7 +6483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>211</v>
       </c>
@@ -6500,7 +6515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>212</v>
       </c>
@@ -6535,7 +6550,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>214</v>
       </c>
@@ -6570,7 +6585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>215</v>
       </c>
@@ -6605,7 +6620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -6640,7 +6655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>217</v>
       </c>
@@ -6675,7 +6690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -6710,7 +6725,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>220</v>
       </c>
@@ -6742,7 +6757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -6777,7 +6792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -6809,7 +6824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>223</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -6876,7 +6891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>225</v>
       </c>
@@ -6911,7 +6926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>226</v>
       </c>
@@ -6943,7 +6958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>227</v>
       </c>
@@ -6975,7 +6990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>228</v>
       </c>
@@ -7010,7 +7025,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>230</v>
       </c>
@@ -7042,7 +7057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>231</v>
       </c>
@@ -7074,7 +7089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>232</v>
       </c>
